--- a/case/api_testdata.xlsx
+++ b/case/api_testdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse-workspace\api_autotest_ep\case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\api_autotest_ep3\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201503D5-15C7-4DDF-801A-57254CEC74ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82E879F-9125-41D5-AF16-0FE21BBA492C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{1D002C6A-61BD-498D-B5A0-2E862FEFE987}"/>
   </bookViews>
@@ -25,61 +25,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://lf.snssdk.com/neihan/service/tabs/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>essence=1&amp;iid=3216590132&amp;device_id=32613520945&amp;ac=wifi&amp;channel=360&amp;aid=7&amp;app_name=joke_essay&amp;version_code=612&amp;version_name=6.1.2&amp;device_platform=android&amp;ssmix=a&amp;device_type=sansung&amp;device_brand=xiaomi&amp;os_api=28&amp;os_version=6.10.1&amp;uuid=326135942187625&amp;openudid=3dg6s95rhg2a3dg5&amp;manifest_version_code=612&amp;resolution=1450*2800&amp;dpi=620&amp;update_version_code=6120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"message": "success"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取 content_type</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+  <si>
+    <t>http://dev.e-ports.com/api/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "status": "OK",
+    "action": "searchAgencyAtHome",
+    "response": [
+        {
+            "_id": "5b5e75572a22f708003a9aa2",
+            "name": "lovely12",
+            "score": 1.75
+        }
+    ]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account - searchAgencyAtHome 官网首页搜索代理方</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -87,60 +53,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://kyfw.12306.cn/otn/leftTicket/query</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>leftTicketDTO.train_date=2017-02-05&amp;leftTicketDTO.from_station=BJP&amp;leftTicketDTO.to_station=SHH&amp;purpose_codes=0X00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"status": true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>——</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>票数</t>
+    <t>Post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>param</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expectedresult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>variable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>method</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
-  "data": {
-    "date": {
-      "curr": "20170217",
-      "prev": "20170216",
-      "next": "20170218"
-    },
-    "author": "契诃夫",
-    "title": "散戏之后",
-    "digest": "娜卡.戴莱尼同她母亲从戏园里……",
-    "content": "&lt;p&gt;娜卡.戴莱尼同她母亲从戏园里回来，那天，戏园里演了一出戏名叫《叶甫盖尼.奥涅金》的戏剧。她跑到自己的屋子里去，很快脱去衣服……",
-    "wc": 1963
-  }
+ "action":"searchAgencyAtHome",
+ "request":"",
+ "searchKey":"lovely"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"author": "契诃夫"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://interface.meiriyiwen.com/article/today?dev=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日一文</t>
+    <t>http://dev.e-ports.com/api/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status":"OK"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "request":{
+  "password":"password",
+  "rememberMe":false,  
+  "username":"agencytest@testcompany.com"},
+ "action":"login"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "userId":"5bc3f522de76654804f5d13e",
+    "shipId":"",
+    "taskDescription":"",
+    "current":1,
+    "size":10
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.30.86:10003/ordertask/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "msg": "没有相关数据",
+    "code": 0,
+    "data": false
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.APP获取待办/船舶的任务列表-[业务]获取用户代办的任务列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -190,12 +211,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -207,15 +243,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -535,16 +580,16 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.75" customWidth="1"/>
-    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.125" customWidth="1"/>
+    <col min="5" max="5" width="36.875" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.25" bestFit="1" customWidth="1"/>
@@ -553,121 +598,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="171" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="E2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" ht="57" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="270.75" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:10" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="F4" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{8BE0E619-A09E-4AD0-9320-550837C892F3}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{E6F1DD47-F8AE-441E-A6DA-1995933B44CE}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{A6D2B6E1-2681-418C-AE38-8C4F762851C2}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{A44FCC28-BCFB-41FB-B511-030A22BEF15E}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{9EF62502-4F22-4962-96A0-A3F0D744C3B2}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{D8E0A8AD-3FA5-48A5-9045-89D2BDDF6F20}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
